--- a/BLM WY 3-24-20 Sale/Results/Activity Summary Notes.xlsx
+++ b/BLM WY 3-24-20 Sale/Results/Activity Summary Notes.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -59,12 +56,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -362,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L106"/>
+  <dimension ref="A1:K106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -408,22 +404,17 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Leases Summary</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Old Production Summary</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Recent Prod Summary</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Leases Summary</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Old Production Summary</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Record Date</t>
         </is>
       </c>
     </row>
@@ -462,23 +453,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Anderson O&amp;G paid between $2/acre and $640/acre.  Diamond Resources paid $8/acre.  The weighted average price in 2019 overall within the 3 radius was $157/acre.  The highest price paid in 2019 was $640/acre
 </t>
         </is>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -516,26 +504,25 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2018.
 Southland Royalty paid between $39/acre and $46/acre.  The weighted average price in 2018 overall within the 3 radius was $42/acre.  The highest price paid in 2018 was $46/acre
 </t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are 17 wells within the tract.
+16 wells did not report production1 wells reported production.  They produced: 2 mbbl and 121 mmcf at 10430 ft from years 1981-1992, 
+There are ~27 wells outside the tract within a 3 mile radius.
+Out of these, 2 were dry.
+16 do not have reported production. 
+The top wells that produced made: 214 mbbl and 8651 mmcf at 9557 ft in 481 months from 1979-2020; 223 mbbl and 8217 mmcf at 9504 ft in 469 months from 1979-2020; 85 mbbl and 4401 mmcf at 9715 ft in 325 months from 1992-2020; 98 mbbl and 4290 mmcf at 9707 ft in 455 months from 1980-2020; 128 mbbl and 3856 mmcf at 10170 ft in 435 months from 1980-2020; </t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 44 wells outside the tract within a 3 mile radius.
-Out of these, 2 were dry and 32 do not have reported production. 
-The top wells that produced made: 214 mbbl and 8651 mmcf at 9557 ft in 481 months from 1979-2020; 223 mbbl and 8217 mmcf at 9504 ft in 469 months from 1979-2020; 85 mbbl and 4401 mmcf at 9715 ft in 325 months from 1992-2020; 98 mbbl and 4290 mmcf at 9707 ft in 455 months from 1980-2020; 128 mbbl and 3856 mmcf at 10170 ft in 435 months from 1980-2020; </t>
-        </is>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -577,24 +564,21 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
+Western American Resources paid $640/acre.  
+</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>There are 1 wells within 3 mile radius that have started producing within last 4 years
 0.68 mi NW, Phillips Energy/Sklar Exploration has a D well at 5400 that has made 1 mbbl and nan mmcf after 6 months of producing</t>
         </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
-Western American Resources paid $640/acre.  
-</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>43913</v>
       </c>
     </row>
     <row r="5">
@@ -632,23 +616,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Edge Energy Ii paid between $53/acre and $106/acre.  Gungnir Resources paid between $111/acre and $49280/acre.  The weighted average price in 2019 overall within the 3 radius was $4193/acre.  The highest price paid in 2019 was $49280/acre
 </t>
         </is>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -686,24 +667,21 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2018.
 Midland Energy paid $21/acre.  
 In 2017, Robert L Bayless paid $52/acre. 
 </t>
         </is>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -740,11 +718,6 @@
         </is>
       </c>
       <c r="I7" t="inlineStr">
-        <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
         <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2017.
 Robert L Bayless paid $52/acre.  The weighted average price in 2017 overall within the 3 radius was $52/acre.  
@@ -753,13 +726,15 @@
 </t>
         </is>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -797,24 +772,21 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2018.
 Midland Energy paid $28/acre.  
 In 2017, Robert L Bayless paid $52/acre. 
 </t>
         </is>
       </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -852,24 +824,21 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2017.
 Robert L Bayless paid between $26/acre and $52/acre.  The weighted average price in 2017 overall within the 3 radius was $43/acre.  The highest price paid in 2017 was $52/acre
 In 2015, Robert L Bayless paid $68/acre. 
 </t>
         </is>
       </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -906,11 +875,6 @@
         </is>
       </c>
       <c r="I10" t="inlineStr">
-        <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
         <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2018.
 Midland Energy paid $28/acre.  
@@ -919,13 +883,15 @@
 </t>
         </is>
       </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -962,11 +928,6 @@
         </is>
       </c>
       <c r="I11" t="inlineStr">
-        <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
         <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2018.
 Midland Energy paid $28/acre.  
@@ -975,13 +936,15 @@
 </t>
         </is>
       </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1019,24 +982,21 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2018.
 Robert L Bayless paid $8/acre.  
 In 2017, Robert L Bayless paid between $26/acre and $52/acre. 
 </t>
         </is>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1073,11 +1033,6 @@
         </is>
       </c>
       <c r="I13" t="inlineStr">
-        <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
         <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2018.
 Robert L Bayless paid $8/acre.  
@@ -1086,13 +1041,15 @@
 </t>
         </is>
       </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1130,24 +1087,21 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Colorado Energy Minerals paid $37/acre.  Thunder Basin Resources paid $52/acre.  
 In 2017, Robert L Bayless paid between $45/acre and $51/acre. 
 </t>
         </is>
       </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1184,11 +1138,6 @@
         </is>
       </c>
       <c r="I15" t="inlineStr">
-        <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
         <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Colorado Energy Minerals paid $37/acre.  
@@ -1197,13 +1146,15 @@
 </t>
         </is>
       </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1240,11 +1191,6 @@
         </is>
       </c>
       <c r="I16" t="inlineStr">
-        <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
         <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Colorado Energy Minerals paid $37/acre.  Thunder Basin Resources paid $52/acre.  
@@ -1253,13 +1199,15 @@
 </t>
         </is>
       </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1301,11 +1249,6 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Rockies Resources Holding paid between $10320/acre and $30960/acre.  Massif O&amp;G paid $133120/acre.  The weighted average price in 2019 overall within the 3 radius was $97347/acre.  The highest price paid in 2019 was $133120/acre
 In 2018, Rockies Resources Holding paid between $528/acre and $907/acre. 
@@ -1314,13 +1257,15 @@
 </t>
         </is>
       </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1362,25 +1307,22 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
+          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2014.
+Mbi O&amp;G paid $3100/acre.  
+</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
           <t xml:space="preserve">There are 6 wells within 3 mile radius that have started producing within last 4 years
 6 are H wells
 1 well has made 68 mbbl and 92 mmcfd in 5 months and is currently making 306 bpd and 608 mcfd.  2 wells have produced for 6 to 8 months and have made between 82 to 145 mbbls with 47 to 86 mmcf of gas.  These wells are currently averaging 345 bpd and 276 mcfd.  1 well has made 198 mbbl and 236 mmcfd in 16 months and is currently making 234 bpd and 273 mcfd.  1 well has made 238 mbbl and 287 mmcfd in 22 months and is currently making 165 bpd and 164 mcfd.  1 well has made 214 mbbl and 119 mmcfd in 26 months and is currently making 194 bpd and 99 mcfd.  </t>
         </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2014.
-Mbi O&amp;G paid $3100/acre.  
-</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="n">
-        <v>43913</v>
       </c>
     </row>
     <row r="19">
@@ -1422,25 +1364,22 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
+          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2014.
+Mbi O&amp;G paid $3100/acre.  
+</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
           <t xml:space="preserve">There are 5 wells within 3 mile radius that have started producing within last 4 years
 5 are H wells
 2 wells have produced for 6 to 8 months and have made between 82 to 145 mbbls with 47 to 86 mmcf of gas.  These wells are currently averaging 345 bpd and 276 mcfd.  1 well has made 198 mbbl and 236 mmcfd in 16 months and is currently making 234 bpd and 273 mcfd.  1 well has made 238 mbbl and 287 mmcfd in 22 months and is currently making 165 bpd and 164 mcfd.  1 well has made 214 mbbl and 119 mmcfd in 26 months and is currently making 194 bpd and 99 mcfd.  </t>
         </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2014.
-Mbi O&amp;G paid $3100/acre.  
-</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="n">
-        <v>43913</v>
       </c>
     </row>
     <row r="20">
@@ -1482,26 +1421,23 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
+          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2017.
+Peak Powder River Resources paid $4002/acre.  
+In 2014, Mbi O&amp;G paid $3100/acre. 
+</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
           <t xml:space="preserve">There are 10 wells within 3 mile radius that have started producing within last 4 years
 10 are H wells
 1 well has made 68 mbbl and 92 mmcfd in 5 months and is currently making 306 bpd and 608 mcfd.  2 wells have produced for 6 to 8 months and have made between 82 to 145 mbbls with 47 to 86 mmcf of gas.  These wells are currently averaging 345 bpd and 276 mcfd.  1 well has made 282 mbbl and 147 mmcfd in 12 months and is currently making 376 bpd and 174 mcfd.  1 well has made 198 mbbl and 236 mmcfd in 16 months and is currently making 234 bpd and 273 mcfd.  1 well has made 238 mbbl and 287 mmcfd in 22 months and is currently making 165 bpd and 164 mcfd.  1 well has made 214 mbbl and 119 mmcfd in 26 months and is currently making 194 bpd and 99 mcfd.  </t>
         </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2017.
-Peak Powder River Resources paid $4002/acre.  
-In 2014, Mbi O&amp;G paid $3100/acre. 
-</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="n">
-        <v>43913</v>
       </c>
     </row>
     <row r="21">
@@ -1543,25 +1479,22 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
+          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2017.
+Onyx Energy paid $3052/acre.  
+</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
           <t xml:space="preserve">There are 15 wells within 3 mile radius that have started producing within last 4 years
 15 are H wells
 5 wells have produced for 2 to 3 months and have made between 22 to 50 mbbls with 20 to 83 mmcf of gas.  These wells are currently averaging 424 bpd and 628 mcfd.  4 wells have produced for 12 to 18 months and have made between 66 to 182 mbbls with 46 to 635 mmcf of gas.  These wells are currently averaging 64 bpd and 293 mcfd.  2 wells have produced for 19 to 24 months and have made between 72 to 101 mbbls with 69 to 160 mmcf of gas.  These wells are currently averaging 32 bpd and 59 mcfd.  </t>
         </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2017.
-Onyx Energy paid $3052/acre.  
-</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="n">
-        <v>43913</v>
       </c>
     </row>
     <row r="22">
@@ -1603,26 +1536,23 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
+          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2017.
+Onyx Energy paid $3052/acre.  
+In 2014, Pacer Energy paid $3900/acre. 
+</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
           <t xml:space="preserve">There are 22 wells within 3 mile radius that have started producing within last 4 years
 22 are H wells
 8 wells have produced for 2 to 3 months and have made between 22 to 85 mbbls with 20 to 92 mmcf of gas.  These wells are currently averaging 460 bpd and 723 mcfd.  2 wells have produced for 6 to 8 months and have made between 122 to 191 mbbls with 456 to 706 mmcf of gas.  These wells are currently averaging 385 bpd and 1973 mcfd.  6 wells have produced for 12 to 18 months and have made between 66 to 224 mbbls with 46 to 635 mmcf of gas.  These wells are currently averaging 44 bpd and 196 mcfd.  </t>
         </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2017.
-Onyx Energy paid $3052/acre.  
-In 2014, Pacer Energy paid $3900/acre. 
-</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="n">
-        <v>43913</v>
       </c>
     </row>
     <row r="23">
@@ -1664,25 +1594,22 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
+          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2017.
+Onyx Energy paid $3052/acre.  
+</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
           <t xml:space="preserve">There are 13 wells within 3 mile radius that have started producing within last 4 years
 13 are H wells
 5 wells have produced for 2 to 3 months and have made between 22 to 50 mbbls with 20 to 83 mmcf of gas.  These wells are currently averaging 424 bpd and 628 mcfd.  2 wells have produced for 12 to 18 months and have made between 66 to 82 mbbls with 312 to 401 mmcf of gas.  These wells are currently averaging 64 bpd and 425 mcfd.  2 wells have produced for 19 to 24 months and have made between 72 to 101 mbbls with 69 to 160 mmcf of gas.  These wells are currently averaging 32 bpd and 59 mcfd.  </t>
         </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2017.
-Onyx Energy paid $3052/acre.  
-</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L23" s="2" t="n">
-        <v>43913</v>
       </c>
     </row>
     <row r="24">
@@ -1724,25 +1651,22 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
+          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2017.
+Onyx Energy paid $3052/acre.  
+</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
           <t>There are 2 wells within 3 mile radius that have started producing within last 4 years
 2.26 mi NW, Devon Energy Corporation has a H well at 10342 that has made 178 mbbl and 377 mmcf after 25 months of producing
 2.50 mi NW, Devon Energy Corporation has a H well at 10354 that has made 206 mbbl and 584 mmcf after 25 months of producing</t>
         </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2017.
-Onyx Energy paid $3052/acre.  
-</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L24" s="2" t="n">
-        <v>43913</v>
       </c>
     </row>
     <row r="25">
@@ -1784,25 +1708,22 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
+          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2017.
+Onyx Energy paid $3052/acre.  
+</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
           <t>There are 2 wells within 3 mile radius that have started producing within last 4 years
 1.90 mi NW, Devon Energy Corporation has a H well at 10342 that has made 178 mbbl and 377 mmcf after 25 months of producing
 2.11 mi NW, Devon Energy Corporation has a H well at 10354 that has made 206 mbbl and 584 mmcf after 25 months of producing</t>
         </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2017.
-Onyx Energy paid $3052/acre.  
-</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L25" s="2" t="n">
-        <v>43913</v>
       </c>
     </row>
     <row r="26">
@@ -1844,26 +1765,23 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
+          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2017.
+Onyx Energy paid $3052/acre.  
+In 2014, Pacer Energy paid $3900/acre. 
+</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
           <t xml:space="preserve">There are 15 wells within 3 mile radius that have started producing within last 4 years
 15 are H wells
 8 wells have produced for 2 to 3 months and have made between 22 to 85 mbbls with 20 to 92 mmcf of gas.  These wells are currently averaging 460 bpd and 723 mcfd.  3 wells have produced for 12 to 18 months and have made between 146 to 224 mbbls with 67 to 344 mmcf of gas.  These wells are currently averaging 81 bpd and 38 mcfd.  </t>
         </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2017.
-Onyx Energy paid $3052/acre.  
-In 2014, Pacer Energy paid $3900/acre. 
-</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L26" s="2" t="n">
-        <v>43913</v>
       </c>
     </row>
     <row r="27">
@@ -1905,26 +1823,23 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
+          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2017.
+Onyx Energy paid $3052/acre.  
+In 2014, Pacer Energy paid $3900/acre. 
+</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
           <t xml:space="preserve">There are 20 wells within 3 mile radius that have started producing within last 4 years
 20 are H wells
 8 wells have produced for 2 to 3 months and have made between 22 to 85 mbbls with 20 to 92 mmcf of gas.  These wells are currently averaging 460 bpd and 723 mcfd.  1 well has made 89 mbbl and 208 mmcfd in 8 months and is currently making 246 bpd and 753 mcfd.  1 well has made 176 mbbl and 252 mmcfd in 12 months and is currently making 332 bpd and 513 mcfd.  6 wells have produced for 12 to 18 months and have made between 146 to 224 mbbls with 67 to 344 mmcf of gas.  These wells are currently averaging 131 bpd and 121 mcfd.  2 wells have produced for 25 to 36 months and have made between 179 to 258 mbbls with 269 to 393 mmcf of gas.  These wells are currently averaging 87 bpd and 183 mcfd.  </t>
         </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2017.
-Onyx Energy paid $3052/acre.  
-In 2014, Pacer Energy paid $3900/acre. 
-</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L27" s="2" t="n">
-        <v>43913</v>
       </c>
     </row>
     <row r="28">
@@ -1966,26 +1881,23 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
+          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2017.
+Onyx Energy paid $3052/acre.  
+In 2014, Pacer Energy paid $3900/acre. 
+</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
           <t xml:space="preserve">There are 16 wells within 3 mile radius that have started producing within last 4 years
 16 are H wells
 8 wells have produced for 2 to 3 months and have made between 22 to 85 mbbls with 20 to 92 mmcf of gas.  These wells are currently averaging 460 bpd and 723 mcfd.  1 well has made 176 mbbl and 252 mmcfd in 12 months and is currently making 332 bpd and 513 mcfd.  3 wells have produced for 12 to 18 months and have made between 146 to 224 mbbls with 67 to 344 mmcf of gas.  These wells are currently averaging 81 bpd and 38 mcfd.  </t>
         </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2017.
-Onyx Energy paid $3052/acre.  
-In 2014, Pacer Energy paid $3900/acre. 
-</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L28" s="2" t="n">
-        <v>43913</v>
       </c>
     </row>
     <row r="29">
@@ -2027,25 +1939,22 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
+          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2017.
+Onyx Energy paid $3052/acre.  
+</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
           <t xml:space="preserve">There are 9 wells within 3 mile radius that have started producing within last 4 years
 9 are H wells
 5 wells have produced for 2 to 3 months and have made between 22 to 50 mbbls with 20 to 83 mmcf of gas.  These wells are currently averaging 424 bpd and 628 mcfd.  2 wells have produced for 12 to 18 months and have made between 178 to 224 mbbls with 67 to 344 mmcf of gas.  These wells are currently averaging 120 bpd and 56 mcfd.  </t>
         </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2017.
-Onyx Energy paid $3052/acre.  
-</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L29" s="2" t="n">
-        <v>43913</v>
       </c>
     </row>
     <row r="30">
@@ -2087,26 +1996,23 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
+          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2017.
+Onyx Energy paid $3052/acre.  
+</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
           <t xml:space="preserve">There are 4 wells within 3 mile radius that have started producing within last 4 years
 4 are H wells
 2 wells have produced for 2 to 3 months and have made between 22 to 44 mbbls with 20 to 76 mmcf of gas.  These wells are currently averaging 364 bpd and 470 mcfd.  </t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2017.
-Onyx Energy paid $3052/acre.  
-</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L30" s="2" t="n">
-        <v>43913</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2143,23 +2049,20 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Whiskey Gulch paid between $83/acre and $708/acre.  Langham Petr paid $208/acre.  The weighted average price in 2019 overall within the 3 radius was $225/acre.  The highest price paid in 2019 was $708/acre
 </t>
         </is>
       </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L31" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -2201,23 +2104,20 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Renos L&amp;M paid $506/acre.  Baseline Minerals paid between $1101/acre and $1514/acre.  The weighted average price in 2019 overall within the 3 radius was $736/acre.  The highest price paid in 2019 was $1514/acre
 </t>
         </is>
       </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L32" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -2255,23 +2155,20 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2017.
 Stroud Expl paid $30/acre.  Kirkwood O&amp;G paid $16/acre.  The weighted average price in 2017 overall within the 3 radius was $27/acre.  The highest price paid in 2017 was $30/acre
 </t>
         </is>
       </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L33" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -2313,13 +2210,6 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>There are 2 wells within 3 mile radius that have started producing within last 4 years
-2.49 mi NE, Eog Resources Incorporated has a H well at 11855 that has made 42 mbbl and 177 mmcf after 8 months of producing
-2.50 mi NE, Eog Resources Incorporated has a H well at 11855 that has made 49 mbbl and 209 mmcf after 8 months of producing</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 2323 Ss paid $302/acre.  Samson Resources paid $1526/acre.  The weighted average price in 2019 overall within the 3 radius was $1569/acre.  The highest price paid in 2019 was $5751/acre
 In 2018, Contex Energy paid $4002/acre. 
@@ -2327,13 +2217,17 @@
 </t>
         </is>
       </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L34" s="2" t="n">
-        <v>43913</v>
+          <t>There are 2 wells within 3 mile radius that have started producing within last 4 years
+2.49 mi NE, Eog Resources Incorporated has a H well at 11855 that has made 42 mbbl and 177 mmcf after 8 months of producing
+2.50 mi NE, Eog Resources Incorporated has a H well at 11855 that has made 49 mbbl and 209 mmcf after 8 months of producing</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -2375,26 +2269,23 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
+          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
+2323 Ss paid $302/acre.  Titan Expl paid $5751/acre.  The weighted average price in 2019 overall within the 3 radius was $1569/acre.  The highest price paid in 2019 was $5751/acre
+In 2018, Contex Energy paid $4002/acre. 
+</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
           <t>There are 2 wells within 3 mile radius that have started producing within last 4 years
 2.67 mi NE, Eog Resources Incorporated has a H well at 11855 that has made 42 mbbl and 177 mmcf after 8 months of producing
 2.68 mi NE, Eog Resources Incorporated has a H well at 11855 that has made 49 mbbl and 209 mmcf after 8 months of producing</t>
         </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
-2323 Ss paid $302/acre.  Titan Expl paid $5751/acre.  The weighted average price in 2019 overall within the 3 radius was $1569/acre.  The highest price paid in 2019 was $5751/acre
-In 2018, Contex Energy paid $4002/acre. 
-</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L35" s="2" t="n">
-        <v>43913</v>
       </c>
     </row>
     <row r="36">
@@ -2436,24 +2327,21 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 2323 Ss paid $302/acre.  Titan Expl paid $5751/acre.  The weighted average price in 2019 overall within the 3 radius was $1569/acre.  The highest price paid in 2019 was $5751/acre
 In 2018, Contex Energy paid $4002/acre. 
 </t>
         </is>
       </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L36" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -2495,24 +2383,21 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Titan Expl paid $5751/acre.  2323 Ss paid $302/acre.  The weighted average price in 2019 overall within the 3 radius was $1575/acre.  The highest price paid in 2019 was $5751/acre
 In 2018, Contex Energy paid $4002/acre. 
 </t>
         </is>
       </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L37" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -2554,26 +2439,23 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
+          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2013.
+Lone Tree Energy paid $570/acre.  
+In 2010, Southwestern Prod paid $700/acre. 
+</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
           <t>There are 2 wells within 3 mile radius that have started producing within last 4 years
 1.91 mi SW, Wold Energy Partners Llc has a H well at 11014 that has made 233 mbbl and 187 mmcf after 38 months of producing
 1.88 mi SW, Wold Energy Partners Llc has a H well at 12577 that has made 486 mbbl and 1589 mmcf after 19 months of producing</t>
         </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2013.
-Lone Tree Energy paid $570/acre.  
-In 2010, Southwestern Prod paid $700/acre. 
-</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L38" s="2" t="n">
-        <v>43913</v>
       </c>
     </row>
     <row r="39">
@@ -2615,26 +2497,23 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
+          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2010.
+Southwestern Prod paid $700/acre.  
+</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
           <t>There are 2 wells within 3 mile radius that have started producing within last 4 years
 2.45 mi SW, Wold Energy Partners Llc has a H well at 11014 that has made 233 mbbl and 187 mmcf after 38 months of producing
 2.42 mi SW, Wold Energy Partners Llc has a H well at 12577 that has made 486 mbbl and 1589 mmcf after 19 months of producing</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2010.
-Southwestern Prod paid $700/acre.  
-</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L39" s="2" t="n">
-        <v>43913</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2670,11 +2549,6 @@
         </is>
       </c>
       <c r="I40" t="inlineStr">
-        <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
         <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Impact Energy paid $502/acre.  Knprb Leases paid $27/acre.  The weighted average price in 2019 overall within the 3 radius was $424/acre.  The highest price paid in 2019 was $502/acre
@@ -2683,13 +2557,15 @@
 </t>
         </is>
       </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L40" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -2726,11 +2602,6 @@
         </is>
       </c>
       <c r="I41" t="inlineStr">
-        <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
         <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Impact Energy paid $502/acre.  Knprb Leases paid between $27/acre and $252/acre.  The weighted average price in 2019 overall within the 3 radius was $316/acre.  The highest price paid in 2019 was $502/acre
@@ -2739,13 +2610,15 @@
 </t>
         </is>
       </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L41" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -2782,11 +2655,6 @@
         </is>
       </c>
       <c r="I42" t="inlineStr">
-        <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
         <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Percheron Professional Services paid $59/acre.  Kirkwood Resources paid $84/acre.  The weighted average price in 2019 overall within the 3 radius was $63/acre.  The highest price paid in 2019 was $84/acre
@@ -2795,13 +2663,15 @@
 </t>
         </is>
       </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L42" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -2838,11 +2708,6 @@
         </is>
       </c>
       <c r="I43" t="inlineStr">
-        <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
         <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Liberty Petr paid $2/acre.  The weighted average price in 2019 overall within the 3 radius was $2/acre.  
@@ -2851,13 +2716,15 @@
 </t>
         </is>
       </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L43" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -2894,11 +2761,6 @@
         </is>
       </c>
       <c r="I44" t="inlineStr">
-        <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
         <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Mason Resources paid $788/acre.  Rockies Resources Holding paid $640/acre.  
@@ -2908,16 +2770,18 @@
 </t>
         </is>
       </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are no wells within tract boundaries 
+There are ~2 wells outside the tract within a 3 mile radius.
+Out of these, 1 were dry.
+The top wells that produced made: 1 mbbl and 41 mmcf at 11040 ft in 30 months from 2005-2009; </t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 2 wells outside the tract within a 3 mile radius.
-Out of these, 1 were dry and 0 do not have reported production. 
-The top wells that produced made: 1 mbbl and 41 mmcf at 11040 ft in 30 months from 2005-2009; </t>
-        </is>
-      </c>
-      <c r="L44" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -2954,11 +2818,6 @@
         </is>
       </c>
       <c r="I45" t="inlineStr">
-        <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
         <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2016.
 Angelle &amp; Donohue O&amp;G paid $10/acre.  
@@ -2967,16 +2826,20 @@
 </t>
         </is>
       </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are 2 wells within the tract.
+2 dry holes in tract.
+There are ~11 wells outside the tract within a 3 mile radius.
+Out of these, 2 were dry.
+3 do not have reported production. 
+The top wells that produced made: 11 mbbl and 406 mmcf at 13277 ft in 155 months from 2004-2020; 3 mbbl and 232 mmcf at 13359 ft in 154 months from 2004-2018; 6 mbbl and 81 mmcf at 13182 ft in 108 months from 2008-2019; 2 mbbl and 41 mmcf at 13182 ft in 109 months from 2008-2019; 2 mbbl and 19 mmcf at 12800 ft in 29 months from 2005-2008; </t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 13 wells outside the tract within a 3 mile radius.
-Out of these, 4 were dry and 3 do not have reported production. 
-The top wells that produced made: 11 mbbl and 406 mmcf at 13277 ft in 155 months from 2004-2020; 3 mbbl and 232 mmcf at 13359 ft in 154 months from 2004-2018; 6 mbbl and 81 mmcf at 13182 ft in 108 months from 2008-2019; 2 mbbl and 41 mmcf at 13182 ft in 109 months from 2008-2019; 2 mbbl and 19 mmcf at 12800 ft in 29 months from 2005-2008; </t>
-        </is>
-      </c>
-      <c r="L45" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -3013,12 +2876,6 @@
         </is>
       </c>
       <c r="I46" t="inlineStr">
-        <is>
-          <t>There are 1 wells within 3 mile radius that have started producing within last 4 years
-1.56 mi S, Conocophillips Company has a H well at 12020 that has made 7 mbbl and 168 mmcf after 6 months of producing</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
         <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Kirkwood Resources paid between $2/acre and $12/acre.  Diamond Resources paid $19/acre.  The weighted average price in 2019 overall within the 3 radius was $11/acre.  The highest price paid in 2019 was $19/acre
@@ -3027,15 +2884,18 @@
 </t>
         </is>
       </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are no wells within tract boundaries 
+There are ~1 wells outside the tract within a 3 mile radius.
+The top wells that produced made: 7 mbbl and 168 mmcf at 12020 ft in 7 months from 2019-2020; </t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 1 wells outside the tract within a 3 mile radius.
-The top wells that produced made: 7 mbbl and 168 mmcf at 12020 ft in 7 months from 2019-2020; </t>
-        </is>
-      </c>
-      <c r="L46" s="2" t="n">
-        <v>43913</v>
+          <t>There are 1 wells within 3 mile radius that have started producing within last 4 years
+1.56 mi S, Conocophillips Company has a H well at 12020 that has made 7 mbbl and 168 mmcf after 6 months of producing</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -3072,12 +2932,6 @@
         </is>
       </c>
       <c r="I47" t="inlineStr">
-        <is>
-          <t>There are 1 wells within 3 mile radius that have started producing within last 4 years
-1.30 mi NE, Conocophillips Company has a H well at 12020 that has made 7 mbbl and 168 mmcf after 6 months of producing</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
         <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Kirkwood Resources paid $12/acre.  Sitka O&amp;G paid $18/acre.  
@@ -3088,16 +2942,19 @@
 </t>
         </is>
       </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are no wells within tract boundaries 
+There are ~2 wells outside the tract within a 3 mile radius.
+Out of these, 1 were dry.
+The top wells that produced made: 7 mbbl and 168 mmcf at 12020 ft in 7 months from 2019-2020; </t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 2 wells outside the tract within a 3 mile radius.
-Out of these, 1 were dry and 0 do not have reported production. 
-The top wells that produced made: 7 mbbl and 168 mmcf at 12020 ft in 7 months from 2019-2020; </t>
-        </is>
-      </c>
-      <c r="L47" s="2" t="n">
-        <v>43913</v>
+          <t>There are 1 wells within 3 mile radius that have started producing within last 4 years
+1.30 mi NE, Conocophillips Company has a H well at 12020 that has made 7 mbbl and 168 mmcf after 6 months of producing</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -3135,24 +2992,21 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2018.
 Baseline Minerals paid between $22/acre and $23/acre.  The weighted average price in 2018 overall within the 3 radius was $22/acre.  The highest price paid in 2018 was $23/acre
 In 2015, Ralph W Specht paid $1/acre. 
 </t>
         </is>
       </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L48" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -3189,11 +3043,6 @@
         </is>
       </c>
       <c r="I49" t="inlineStr">
-        <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
         <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2017.
 Kirkwood O&amp;G paid $16/acre.  
@@ -3204,13 +3053,15 @@
 </t>
         </is>
       </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L49" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -3247,11 +3098,6 @@
         </is>
       </c>
       <c r="I50" t="inlineStr">
-        <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
         <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2017.
 Kirkwood O&amp;G paid $16/acre.  
@@ -3262,13 +3108,15 @@
 </t>
         </is>
       </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L50" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -3305,11 +3153,6 @@
         </is>
       </c>
       <c r="I51" t="inlineStr">
-        <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
         <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Kirkwood Resources paid $12/acre.  
@@ -3318,13 +3161,15 @@
 </t>
         </is>
       </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L51" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -3361,12 +3206,6 @@
         </is>
       </c>
       <c r="I52" t="inlineStr">
-        <is>
-          <t>There are 1 wells within 3 mile radius that have started producing within last 4 years
-2.53 mi NW, Bp America Production Company has a H well at 8364 that has made 52 mbbl and 2378 mmcf after 35 months of producing</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
         <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Rockies Resources Holding paid $29/acre.  
@@ -3375,13 +3214,16 @@
 </t>
         </is>
       </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L52" s="2" t="n">
-        <v>43913</v>
+          <t>There are 1 wells within 3 mile radius that have started producing within last 4 years
+2.53 mi NW, Bp America Production Company has a H well at 8364 that has made 52 mbbl and 2378 mmcf after 35 months of producing</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -3419,27 +3261,26 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2018.
 Hrm Resources paid $19/acre.  
 In 2016, Angelle &amp; Donohue O&amp;G paid $11/acre. 
 </t>
         </is>
       </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are 1 wells within the tract.
+1 wells reported production.  They produced: 16 mbbl and 734 mmcf at 12145 ft from years 2006-2019, 
+There are ~14 wells outside the tract within a 3 mile radius.
+Out of these, 1 were dry.
+1 do not have reported production. 
+The top wells that produced made: 13 mbbl and 833 mmcf at 11450 ft in 178 months from 2002-2019; 7 mbbl and 498 mmcf at 11862 ft in 173 months from 2004-2020; 9 mbbl and 447 mmcf at 12350 ft in 163 months from 2005-2019; 5 mbbl and 200 mmcf at 11750 ft in 160 months from 1998-2019; 17 mbbl and 61 mmcf at 16420 ft in 35 months from 2012-2017; </t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 15 wells outside the tract within a 3 mile radius.
-Out of these, 1 were dry and 1 do not have reported production. 
-The top wells that produced made: 13 mbbl and 833 mmcf at 11450 ft in 178 months from 2002-2019; 16 mbbl and 734 mmcf at 12145 ft in 113 months from 2006-2019; 7 mbbl and 498 mmcf at 11862 ft in 173 months from 2004-2020; 9 mbbl and 447 mmcf at 12350 ft in 163 months from 2005-2019; 5 mbbl and 200 mmcf at 11750 ft in 160 months from 1998-2019; </t>
-        </is>
-      </c>
-      <c r="L53" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -3477,26 +3318,23 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
+          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
+Shadco paid between $2/acre and $7/acre.  The weighted average price in 2019 overall within the 3 radius was $4/acre.  The highest price paid in 2019 was $7/acre
+</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
           <t xml:space="preserve">There are 5 wells within 3 mile radius that have started producing within last 4 years
 5 are V wells
 4 wells have produced for 12 to 18 months and have made between 0 to 0 mbbls with 3 to 4 mmcf of gas.  These wells are currently averaging 0 bpd and 5 mcfd.  </t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
-Shadco paid between $2/acre and $7/acre.  The weighted average price in 2019 overall within the 3 radius was $4/acre.  The highest price paid in 2019 was $7/acre
-</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L54" s="2" t="n">
-        <v>43913</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3533,23 +3371,20 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Mason Resources paid between $71/acre and $81/acre.  The weighted average price in 2019 overall within the 3 radius was $76/acre.  The highest price paid in 2019 was $81/acre
 </t>
         </is>
       </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L55" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -3587,23 +3422,20 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2018.
 Prima Expl paid between $23/acre and $52/acre.  
 </t>
         </is>
       </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L56" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -3644,13 +3476,6 @@
         </is>
       </c>
       <c r="I57" t="inlineStr">
-        <is>
-          <t>There are 2 wells within 3 mile radius that have started producing within last 4 years
-2.77 mi SW, Conocophillips Company has a H well at 11785 that has made 9 mbbl and 217 mmcf after 6 months of producing
-2.77 mi SW, Conocophillips Company has a H well at 12431 that has made 26 mbbl and 666 mmcf after 6 months of producing</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
         <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2018.
 Bso paid $152/acre.  
@@ -3662,16 +3487,22 @@
 </t>
         </is>
       </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are 1 wells within the tract.
+1 dry holes in tract.
+There are ~5 wells outside the tract within a 3 mile radius.
+Out of these, 1 were dry.
+2 do not have reported production. 
+The top wells that produced made: 28 mbbl and 694 mmcf at 12431 ft in 7 months from 2019-2020; 9 mbbl and 217 mmcf at 11785 ft in 6 months from 2019-2020; </t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 6 wells outside the tract within a 3 mile radius.
-Out of these, 2 were dry and 2 do not have reported production. 
-The top wells that produced made: 28 mbbl and 694 mmcf at 12431 ft in 7 months from 2019-2020; 9 mbbl and 217 mmcf at 11785 ft in 6 months from 2019-2020; </t>
-        </is>
-      </c>
-      <c r="L57" s="2" t="n">
-        <v>43913</v>
+          <t>There are 2 wells within 3 mile radius that have started producing within last 4 years
+2.77 mi SW, Conocophillips Company has a H well at 11785 that has made 9 mbbl and 217 mmcf after 6 months of producing
+2.77 mi SW, Conocophillips Company has a H well at 12431 that has made 26 mbbl and 666 mmcf after 6 months of producing</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -3709,26 +3540,23 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2018.
 Black Oak Energy paid between $18/acre and $58/acre.  The weighted average price in 2018 overall within the 3 radius was $26/acre.  The highest price paid in 2018 was $58/acre
 </t>
         </is>
       </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are no wells within tract boundaries 
+There are ~3 wells outside the tract within a 3 mile radius.
+Out of these, 2 were dry.
+The top wells that produced made: 0 mbbl and 5 mmcf at 13383 ft in 5 months from 2006-2006; </t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 3 wells outside the tract within a 3 mile radius.
-Out of these, 2 were dry and 0 do not have reported production. 
-The top wells that produced made: 0 mbbl and 5 mmcf at 13383 ft in 5 months from 2006-2006; </t>
-        </is>
-      </c>
-      <c r="L58" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -3766,27 +3594,25 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Black Oak Energy paid $50/acre.  The weighted average price in 2019 overall within the 3 radius was $50/acre.  
 In 2018, Black Oak Energy paid between $18/acre and $58/acre. 
 </t>
         </is>
       </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are 2 wells within the tract.
+2 dry holes in tract.
+There are ~1 wells outside the tract within a 3 mile radius.
+Out of these, 1 were dry.
+</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 3 wells outside the tract within a 3 mile radius.
-Out of these, 3 were dry and 0 do not have reported production. 
-</t>
-        </is>
-      </c>
-      <c r="L59" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -3824,27 +3650,24 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Black Oak Energy paid $50/acre.  Kirkwood Resources paid $26/acre.  The weighted average price in 2019 overall within the 3 radius was $41/acre.  The highest price paid in 2019 was $50/acre
 In 2018, Black Oak Energy paid $58/acre. 
 </t>
         </is>
       </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are no wells within tract boundaries 
+There are ~3 wells outside the tract within a 3 mile radius.
+Out of these, 3 were dry.
+</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 3 wells outside the tract within a 3 mile radius.
-Out of these, 3 were dry and 0 do not have reported production. 
-</t>
-        </is>
-      </c>
-      <c r="L60" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -3881,11 +3704,6 @@
         </is>
       </c>
       <c r="I61" t="inlineStr">
-        <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
         <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Black Oak Energy paid $50/acre.  Kirkwood Resources paid $26/acre.  The weighted average price in 2019 overall within the 3 radius was $41/acre.  The highest price paid in 2019 was $50/acre
@@ -3894,16 +3712,19 @@
 </t>
         </is>
       </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are 1 wells within the tract.
+1 dry holes in tract.
+There are ~3 wells outside the tract within a 3 mile radius.
+Out of these, 3 were dry.
+</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 4 wells outside the tract within a 3 mile radius.
-Out of these, 4 were dry and 0 do not have reported production. 
-</t>
-        </is>
-      </c>
-      <c r="L61" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -3941,27 +3762,26 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Diamond Resources paid $9/acre.  Mason Resources paid $82/acre.  The weighted average price in 2019 overall within the 3 radius was $48/acre.  The highest price paid in 2019 was $82/acre
 In 2017, Kirkwood O&amp;G paid $27/acre. 
 </t>
         </is>
       </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are 7 wells within the tract.
+4 dry holes in tract.
+1 wells did not report production2 wells reported production.  They produced: 3 mbbl and 35 mmcf at 9923 ft from years 1980-1985, 2 mbbl and 32 mmcf at 3815 ft from years 1982-1985, 
+There are ~14 wells outside the tract within a 3 mile radius.
+Out of these, 13 were dry.
+</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 21 wells outside the tract within a 3 mile radius.
-Out of these, 17 were dry and 1 do not have reported production. 
-The top wells that produced made: 3 mbbl and 35 mmcf at 9923 ft in 42 months from 1980-1985; 2 mbbl and 32 mmcf at 3815 ft in 28 months from 1982-1985; </t>
-        </is>
-      </c>
-      <c r="L62" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -3999,26 +3819,24 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Diamond Resources paid $9/acre.  The weighted average price in 2019 overall within the 3 radius was $9/acre.  
 </t>
         </is>
       </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are no wells within tract boundaries 
+There are ~15 wells outside the tract within a 3 mile radius.
+Out of these, 12 were dry.
+1 do not have reported production. 
+The top wells that produced made: 3 mbbl and 35 mmcf at 9923 ft in 42 months from 1980-1985; 2 mbbl and 32 mmcf at 3815 ft in 28 months from 1982-1985; </t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 15 wells outside the tract within a 3 mile radius.
-Out of these, 12 were dry and 1 do not have reported production. 
-The top wells that produced made: 3 mbbl and 35 mmcf at 9923 ft in 42 months from 1980-1985; 2 mbbl and 32 mmcf at 3815 ft in 28 months from 1982-1985; </t>
-        </is>
-      </c>
-      <c r="L63" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -4056,28 +3874,26 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>There are 1 wells within 3 mile radius that have started producing within last 4 years
-2.39 mi NE, Conocophillips Company has a V well at 12650 that has made 0 mbbl and 20 mmcf after 6 months of producing</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Mason Resources paid $76/acre.  Kirkwood O&amp;G paid $19/acre.  The weighted average price in 2019 overall within the 3 radius was $62/acre.  The highest price paid in 2019 was $76/acre
 In 2016, Kirkwood O&amp;G paid $5/acre. 
 </t>
         </is>
       </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are no wells within tract boundaries 
+There are ~29 wells outside the tract within a 3 mile radius.
+Out of these, 9 were dry.
+8 do not have reported production. 
+The top wells that produced made: 3 mbbl and 7925 mmcf at 12650 ft in 302 months from 1991-2017; 2 mbbl and 6701 mmcf at 12640 ft in 236 months from 2000-2020; 1 mbbl and 6064 mmcf at 12550 ft in 235 months from 2000-2020; 2 mbbl and 5271 mmcf at 12950 ft in 253 months from 1999-2020; 0 mbbl and 1753 mmcf at 13492 ft in 277 months from 1983-2019; </t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 29 wells outside the tract within a 3 mile radius.
-Out of these, 9 were dry and 8 do not have reported production. 
-The top wells that produced made: 3 mbbl and 7925 mmcf at 12650 ft in 302 months from 1991-2017; 2 mbbl and 6701 mmcf at 12640 ft in 236 months from 2000-2020; 1 mbbl and 6064 mmcf at 12550 ft in 235 months from 2000-2020; 2 mbbl and 5271 mmcf at 12950 ft in 253 months from 1999-2020; 0 mbbl and 1753 mmcf at 13492 ft in 277 months from 1983-2019; </t>
-        </is>
-      </c>
-      <c r="L64" s="2" t="n">
-        <v>43913</v>
+          <t>There are 1 wells within 3 mile radius that have started producing within last 4 years
+2.39 mi NE, Conocophillips Company has a V well at 12650 that has made 0 mbbl and 20 mmcf after 6 months of producing</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -4115,26 +3931,25 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
+          <t>There are no recorded leases within a 3 mile radius</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are 9 wells within the tract.
+2 wells did not report production7 wells reported production.  They produced: 1 mbbl and 67 mmcf at 11000 ft from years 1998-2000, 2 mbbl and 143 mmcf at 11258 ft from years 1993-1996, 2 mbbl and 217 mmcf at 11258 ft from years 2000-2008, 1 mbbl and 85 mmcf at 11000 ft from years 1998-2000, 1 mbbl and 163 mmcf at 11258 ft from years 1996-2000, 3 mbbl and 293 mmcf at 11000 ft from years 2000-2017, 1 mbbl and 119 mmcf at 11258 ft from years 1996-2000, 
+There are ~273 wells outside the tract within a 3 mile radius.
+Out of these, 0 were dry.
+18 do not have reported production. 
+The top wells that produced made: 34 mbbl and 3415 mmcf at 10688 ft in 284 months from 1996-2020; 27 mbbl and 2603 mmcf at 10922 ft in 251 months from 1998-2020; 16 mbbl and 2650 mmcf at 10600 ft in 262 months from 1993-2015; 22 mbbl and 2551 mmcf at 10671 ft in 205 months from 2002-2020; 22 mbbl and 1996 mmcf at 10956 ft in 252 months from 1996-2020; </t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
           <t xml:space="preserve">There are 4 wells within 3 mile radius that have started producing within last 4 years
-2 are D wells; 2 are V wells
+2 are V wells; 2 are D wells
 1 well has made nan mbbl and 51 mmcfd in 12 months and is currently making nan bpd and 96 mcfd.  2 wells have produced for 25 to 36 months and have made between 0 to 6 mbbls with 31 to 515 mmcf of gas.  These wells are currently averaging 1 bpd and 143 mcfd.  </t>
         </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>There are no recorded leases within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 282 wells outside the tract within a 3 mile radius.
-Out of these, 0 were dry and 20 do not have reported production. 
-The top wells that produced made: 34 mbbl and 3415 mmcf at 10688 ft in 284 months from 1996-2020; 27 mbbl and 2603 mmcf at 10922 ft in 251 months from 1998-2020; 16 mbbl and 2650 mmcf at 10600 ft in 262 months from 1993-2015; 22 mbbl and 2551 mmcf at 10671 ft in 205 months from 2002-2020; 22 mbbl and 1996 mmcf at 10956 ft in 252 months from 1996-2020; </t>
-        </is>
-      </c>
-      <c r="L65" s="2" t="n">
-        <v>43913</v>
       </c>
     </row>
     <row r="66">
@@ -4172,27 +3987,26 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Kirkwood Resources paid $3/acre.  Diamond Resources paid $9/acre.  The weighted average price in 2019 overall within the 3 radius was $48/acre.  The highest price paid in 2019 was $82/acre
 In 2017, Kirkwood O&amp;G paid $27/acre. 
 </t>
         </is>
       </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are 3 wells within the tract.
+3 dry holes in tract.
+There are ~13 wells outside the tract within a 3 mile radius.
+Out of these, 7 were dry.
+1 do not have reported production. 
+The top wells that produced made: 0 mbbl and 571 mmcf at 9773 ft in 256 months from 1987-2019; 0 mbbl and 364 mmcf at 9773 ft in 72 months from 1980-1986; 3 mbbl and 35 mmcf at 9923 ft in 42 months from 1980-1985; 2 mbbl and 32 mmcf at 3815 ft in 28 months from 1982-1985; 0 mbbl and 33 mmcf at 5330 ft in 4 months from 1980-1981; </t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 16 wells outside the tract within a 3 mile radius.
-Out of these, 10 were dry and 1 do not have reported production. 
-The top wells that produced made: 0 mbbl and 571 mmcf at 9773 ft in 256 months from 1987-2019; 0 mbbl and 364 mmcf at 9773 ft in 72 months from 1980-1986; 3 mbbl and 35 mmcf at 9923 ft in 42 months from 1980-1985; 2 mbbl and 32 mmcf at 3815 ft in 28 months from 1982-1985; 0 mbbl and 33 mmcf at 5330 ft in 4 months from 1980-1981; </t>
-        </is>
-      </c>
-      <c r="L66" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -4229,11 +4043,6 @@
         </is>
       </c>
       <c r="I67" t="inlineStr">
-        <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
         <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Black Oak Energy paid $53/acre.  
@@ -4242,16 +4051,18 @@
 </t>
         </is>
       </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are no wells within tract boundaries 
+There are ~4 wells outside the tract within a 3 mile radius.
+Out of these, 4 were dry.
+</t>
+        </is>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 4 wells outside the tract within a 3 mile radius.
-Out of these, 4 were dry and 0 do not have reported production. 
-</t>
-        </is>
-      </c>
-      <c r="L67" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -4288,11 +4099,6 @@
         </is>
       </c>
       <c r="I68" t="inlineStr">
-        <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
         <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Hrm Resources paid $62/acre.  Black Oak Energy paid between $52/acre and $53/acre.  The weighted average price in 2019 overall within the 3 radius was $50/acre.  The highest price paid in 2019 was $62/acre
@@ -4301,16 +4107,19 @@
 </t>
         </is>
       </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are no wells within tract boundaries 
+There are ~3 wells outside the tract within a 3 mile radius.
+Out of these, 1 were dry.
+1 do not have reported production. 
+The top wells that produced made: 0 mbbl and 21 mmcf at 14315 ft in 15 months from 1981-1982; </t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 3 wells outside the tract within a 3 mile radius.
-Out of these, 1 were dry and 1 do not have reported production. 
-The top wells that produced made: 0 mbbl and 21 mmcf at 14315 ft in 15 months from 1981-1982; </t>
-        </is>
-      </c>
-      <c r="L68" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -4348,27 +4157,25 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2018.
 Kirkwood O&amp;G paid $16/acre.  
 In 2015, Allen &amp; Kirmse paid $1/acre. 
 </t>
         </is>
       </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are no wells within tract boundaries 
+There are ~18 wells outside the tract within a 3 mile radius.
+Out of these, 2 were dry.
+8 do not have reported production. 
+The top wells that produced made: 9 mbbl and 967 mmcf at 12118 ft in 191 months from 2002-2020; 4 mbbl and 745 mmcf at 12447 ft in 185 months from 2003-2019; 4 mbbl and 577 mmcf at 12555 ft in 162 months from 2005-2019; 3 mbbl and 456 mmcf at 12157 ft in 142 months from 2004-2017; 4 mbbl and 415 mmcf at 11943 ft in 194 months from 2003-2020; </t>
+        </is>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 18 wells outside the tract within a 3 mile radius.
-Out of these, 2 were dry and 8 do not have reported production. 
-The top wells that produced made: 9 mbbl and 967 mmcf at 12118 ft in 191 months from 2002-2020; 4 mbbl and 745 mmcf at 12447 ft in 185 months from 2003-2019; 4 mbbl and 577 mmcf at 12555 ft in 162 months from 2005-2019; 3 mbbl and 456 mmcf at 12157 ft in 142 months from 2004-2017; 4 mbbl and 415 mmcf at 11943 ft in 194 months from 2003-2020; </t>
-        </is>
-      </c>
-      <c r="L69" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -4405,11 +4212,6 @@
         </is>
       </c>
       <c r="I70" t="inlineStr">
-        <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
         <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2018.
 Southland Royalty paid between $39/acre and $108/acre.  Baseline Minerals paid between $62/acre and $82/acre.  The weighted average price in 2018 overall within the 3 radius was $69/acre.  The highest price paid in 2018 was $108/acre
@@ -4418,16 +4220,21 @@
 </t>
         </is>
       </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are 3 wells within the tract.
+1 dry holes in tract.
+2 wells reported production.  They produced: 2 mbbl and 348 mmcf at 8650 ft from years 1996-2012, 1 mbbl and 150 mmcf at 8454 ft from years 1979-1989, 
+There are ~5 wells outside the tract within a 3 mile radius.
+Out of these, 2 were dry.
+1 do not have reported production. 
+The top wells that produced made: 4 mbbl and 818 mmcf at 8750 ft in 400 months from 1977-2014; 3 mbbl and 221 mmcf at 8913 ft in 151 months from 1977-1993; </t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 8 wells outside the tract within a 3 mile radius.
-Out of these, 3 were dry and 1 do not have reported production. 
-The top wells that produced made: 4 mbbl and 818 mmcf at 8750 ft in 400 months from 1977-2014; 2 mbbl and 348 mmcf at 8650 ft in 144 months from 1996-2012; 3 mbbl and 221 mmcf at 8913 ft in 151 months from 1977-1993; 1 mbbl and 150 mmcf at 8454 ft in 90 months from 1979-1989; </t>
-        </is>
-      </c>
-      <c r="L70" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -4464,11 +4271,6 @@
         </is>
       </c>
       <c r="I71" t="inlineStr">
-        <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
         <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Liberty Petr paid between $28/acre and $39/acre.  Black Oak Energy paid between $50/acre and $52/acre.  The weighted average price in 2019 overall within the 3 radius was $39/acre.  The highest price paid in 2019 was $52/acre
@@ -4477,16 +4279,18 @@
 </t>
         </is>
       </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are no wells within tract boundaries 
+There are ~10 wells outside the tract within a 3 mile radius.
+Out of these, 2 were dry.
+The top wells that produced made: 8 mbbl and 1378 mmcf at 13602 ft in 143 months from 1979-2002; 16 mbbl and 0 mmcf at 13602 ft in 121 months from 2003-2016; 0 mbbl and 82 mmcf at 13761 ft in 84 months from 2004-2014; </t>
+        </is>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 10 wells outside the tract within a 3 mile radius.
-Out of these, 2 were dry and 0 do not have reported production. 
-The top wells that produced made: 8 mbbl and 1378 mmcf at 13602 ft in 143 months from 1979-2002; 16 mbbl and 0 mmcf at 13602 ft in 121 months from 2003-2016; 0 mbbl and 82 mmcf at 13761 ft in 84 months from 2004-2014; </t>
-        </is>
-      </c>
-      <c r="L71" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -4524,29 +4328,28 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
+          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2018.
+Southland Royalty paid between $36/acre and $67/acre.  Baseline Minerals paid $94/acre.  The weighted average price in 2018 overall within the 3 radius was $61/acre.  The highest price paid in 2018 was $94/acre
+</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are 1 wells within the tract.
+1 wells reported production.  They produced: 11 mbbl and 3659 mmcf at 6579 ft from years 1974-2016, 
+There are ~46 wells outside the tract within a 3 mile radius.
+Out of these, 9 were dry.
+5 do not have reported production. 
+The top wells that produced made: 51 mbbl and 16413 mmcf at 6510 ft in 528 months from 1974-2020; 17 mbbl and 12633 mmcf at 6015 ft in 528 months from 1974-2020; 14 mbbl and 12534 mmcf at 6209 ft in 407 months from 1974-2009; 49 mbbl and 10992 mmcf at 5635 ft in 538 months from 1974-2020; 44 mbbl and 10229 mmcf at 6838 ft in 541 months from 1974-2020; </t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
           <t>There are 2 wells within 3 mile radius that have started producing within last 4 years
 0.96 mi NW, Urban Oil And Gas Group Llc has a V well at 6500 that has made nan mbbl and 1 mmcf after 1 months of producing
 2.10 mi W, Urban Oil And Gas Group Llc has a V well at 5850 that has made nan mbbl and 2 mmcf after 1 months of producing</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2018.
-Southland Royalty paid between $36/acre and $67/acre.  Baseline Minerals paid $94/acre.  The weighted average price in 2018 overall within the 3 radius was $61/acre.  The highest price paid in 2018 was $94/acre
-</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 47 wells outside the tract within a 3 mile radius.
-Out of these, 9 were dry and 5 do not have reported production. 
-The top wells that produced made: 51 mbbl and 16413 mmcf at 6510 ft in 528 months from 1974-2020; 17 mbbl and 12633 mmcf at 6015 ft in 528 months from 1974-2020; 14 mbbl and 12534 mmcf at 6209 ft in 407 months from 1974-2009; 49 mbbl and 10992 mmcf at 5635 ft in 538 months from 1974-2020; 44 mbbl and 10229 mmcf at 6838 ft in 541 months from 1974-2020; </t>
-        </is>
-      </c>
-      <c r="L72" s="2" t="n">
-        <v>43913</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4582,11 +4385,6 @@
         </is>
       </c>
       <c r="I73" t="inlineStr">
-        <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
         <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Kirkwood Resources paid $2/acre.  
@@ -4597,16 +4395,20 @@
 </t>
         </is>
       </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are 1 wells within the tract.
+1 dry holes in tract.
+There are ~16 wells outside the tract within a 3 mile radius.
+Out of these, 8 were dry.
+6 do not have reported production. 
+The top wells that produced made: 7 mbbl and 2011 mmcf at 5325 ft in 236 months from 1974-1996; 1 mbbl and 219 mmcf at 5528 ft in 155 months from 2005-2020; </t>
+        </is>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 17 wells outside the tract within a 3 mile radius.
-Out of these, 9 were dry and 6 do not have reported production. 
-The top wells that produced made: 7 mbbl and 2011 mmcf at 5325 ft in 236 months from 1974-1996; 1 mbbl and 219 mmcf at 5528 ft in 155 months from 2005-2020; </t>
-        </is>
-      </c>
-      <c r="L73" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -4644,26 +4446,25 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2014.
 Teton Resources paid $18/acre.  
 </t>
         </is>
       </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are 1 wells within the tract.
+1 wells reported production.  They produced: 0 mbbl and 374 mmcf at 11450 ft from years 2002-2018, 
+There are ~22 wells outside the tract within a 3 mile radius.
+Out of these, 5 were dry.
+2 do not have reported production. 
+The top wells that produced made: 5 mbbl and 1297 mmcf at 10250 ft in 163 months from 2006-2020; 1 mbbl and 1253 mmcf at 11230 ft in 194 months from 2003-2020; 1 mbbl and 1171 mmcf at 11193 ft in 175 months from 2005-2020; 2 mbbl and 981 mmcf at 10650 ft in 135 months from 2008-2020; 1 mbbl and 842 mmcf at 11420 ft in 146 months from 2007-2020; </t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 23 wells outside the tract within a 3 mile radius.
-Out of these, 5 were dry and 2 do not have reported production. 
-The top wells that produced made: 5 mbbl and 1297 mmcf at 10250 ft in 163 months from 2006-2020; 1 mbbl and 1253 mmcf at 11230 ft in 194 months from 2003-2020; 1 mbbl and 1171 mmcf at 11193 ft in 175 months from 2005-2020; 2 mbbl and 981 mmcf at 10650 ft in 135 months from 2008-2020; 1 mbbl and 842 mmcf at 11420 ft in 146 months from 2007-2020; </t>
-        </is>
-      </c>
-      <c r="L74" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -4701,26 +4502,23 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2018.
 Black Oak Energy paid between $11/acre and $24/acre.  The weighted average price in 2018 overall within the 3 radius was $14/acre.  The highest price paid in 2018 was $24/acre
 </t>
         </is>
       </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are no wells within tract boundaries 
+There are ~1 wells outside the tract within a 3 mile radius.
+Out of these, 1 were dry.
+</t>
+        </is>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 1 wells outside the tract within a 3 mile radius.
-Out of these, 1 were dry and 0 do not have reported production. 
-</t>
-        </is>
-      </c>
-      <c r="L75" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -4758,27 +4556,25 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Liberty Petr paid between $12/acre and $22/acre.  The weighted average price in 2019 overall within the 3 radius was $17/acre.  The highest price paid in 2019 was $22/acre
 In 2018, Black Oak Energy paid between $11/acre and $24/acre. 
 </t>
         </is>
       </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are no wells within tract boundaries 
+There are ~4 wells outside the tract within a 3 mile radius.
+Out of these, 3 were dry.
+1 do not have reported production. 
+</t>
+        </is>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 4 wells outside the tract within a 3 mile radius.
-Out of these, 3 were dry and 1 do not have reported production. 
-</t>
-        </is>
-      </c>
-      <c r="L76" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -4815,11 +4611,6 @@
         </is>
       </c>
       <c r="I77" t="inlineStr">
-        <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
         <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Liberty Petr paid between $12/acre and $80/acre.  The weighted average price in 2019 overall within the 3 radius was $32/acre.  The highest price paid in 2019 was $80/acre
@@ -4828,16 +4619,19 @@
 </t>
         </is>
       </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are no wells within tract boundaries 
+There are ~5 wells outside the tract within a 3 mile radius.
+Out of these, 3 were dry.
+1 do not have reported production. 
+The top wells that produced made: 0 mbbl and 41 mmcf at 12670 ft in 101 months from 2008-2019; </t>
+        </is>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 5 wells outside the tract within a 3 mile radius.
-Out of these, 3 were dry and 1 do not have reported production. 
-The top wells that produced made: 0 mbbl and 41 mmcf at 12670 ft in 101 months from 2008-2019; </t>
-        </is>
-      </c>
-      <c r="L77" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -4874,11 +4668,6 @@
         </is>
       </c>
       <c r="I78" t="inlineStr">
-        <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
         <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Liberty Petr paid between $12/acre and $80/acre.  The weighted average price in 2019 overall within the 3 radius was $34/acre.  The highest price paid in 2019 was $80/acre
@@ -4887,16 +4676,19 @@
 </t>
         </is>
       </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are 1 wells within the tract.
+1 wells did not report production
+There are ~3 wells outside the tract within a 3 mile radius.
+Out of these, 2 were dry.
+The top wells that produced made: 0 mbbl and 41 mmcf at 12670 ft in 101 months from 2008-2019; </t>
+        </is>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 4 wells outside the tract within a 3 mile radius.
-Out of these, 2 were dry and 1 do not have reported production. 
-The top wells that produced made: 0 mbbl and 41 mmcf at 12670 ft in 101 months from 2008-2019; </t>
-        </is>
-      </c>
-      <c r="L78" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -4934,27 +4726,25 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2017.
 Kirkwood O&amp;G paid $8/acre.  
 In 2014, Teton Resources paid $13/acre. 
 </t>
         </is>
       </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are 1 wells within the tract.
+1 dry holes in tract.
+There are ~3 wells outside the tract within a 3 mile radius.
+Out of these, 3 were dry.
+</t>
+        </is>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 4 wells outside the tract within a 3 mile radius.
-Out of these, 4 were dry and 0 do not have reported production. 
-</t>
-        </is>
-      </c>
-      <c r="L79" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -4992,27 +4782,25 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Baseline Minerals paid $24/acre.  
 In 2017, Kirkwood O&amp;G paid $8/acre. 
 </t>
         </is>
       </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are 3 wells within the tract.
+3 dry holes in tract.
+There are ~4 wells outside the tract within a 3 mile radius.
+Out of these, 4 were dry.
+</t>
+        </is>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 7 wells outside the tract within a 3 mile radius.
-Out of these, 7 were dry and 0 do not have reported production. 
-</t>
-        </is>
-      </c>
-      <c r="L80" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -5050,27 +4838,25 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Baseline Minerals paid $24/acre.  
 In 2017, Kirkwood O&amp;G paid $8/acre. 
 </t>
         </is>
       </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are 1 wells within the tract.
+1 dry holes in tract.
+There are ~9 wells outside the tract within a 3 mile radius.
+Out of these, 9 were dry.
+</t>
+        </is>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 10 wells outside the tract within a 3 mile radius.
-Out of these, 10 were dry and 0 do not have reported production. 
-</t>
-        </is>
-      </c>
-      <c r="L81" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -5108,27 +4894,26 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Kirkwood Resources paid $23/acre.  
 In 2017, Kirkwood O&amp;G paid between $8/acre and $21/acre. 
 </t>
         </is>
       </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are 2 wells within the tract.
+2 dry holes in tract.
+There are ~16 wells outside the tract within a 3 mile radius.
+Out of these, 11 were dry.
+1 do not have reported production. 
+The top wells that produced made: 4 mbbl and 4007 mmcf at 4633 ft in 400 months from 1974-2020; 0 mbbl and 711 mmcf at 4633 ft in 148 months from 1974-1989; 0 mbbl and 218 mmcf at 4545 ft in 56 months from 1974-1980; 0 mbbl and 169 mmcf at 4545 ft in 103 months from 1981-1991; </t>
+        </is>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 18 wells outside the tract within a 3 mile radius.
-Out of these, 13 were dry and 1 do not have reported production. 
-The top wells that produced made: 4 mbbl and 4007 mmcf at 4633 ft in 400 months from 1974-2020; 0 mbbl and 711 mmcf at 4633 ft in 148 months from 1974-1989; 0 mbbl and 218 mmcf at 4545 ft in 56 months from 1974-1980; 0 mbbl and 169 mmcf at 4545 ft in 103 months from 1981-1991; </t>
-        </is>
-      </c>
-      <c r="L82" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -5166,26 +4951,25 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2018.
 Kirkwood O&amp;G paid $32/acre.  Bro Energy paid $23/acre.  The weighted average price in 2018 overall within the 3 radius was $29/acre.  The highest price paid in 2018 was $32/acre
 </t>
         </is>
       </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are 1 wells within the tract.
+1 wells reported production.  They produced: 1 mbbl and 103 mmcf at 8280 ft from years 1996-2001, 
+There are ~25 wells outside the tract within a 3 mile radius.
+Out of these, 8 were dry.
+6 do not have reported production. 
+The top wells that produced made: 93 mbbl and 3662 mmcf at 7845 ft in 191 months from 1995-2013; 89 mbbl and 3348 mmcf at 6840 ft in 183 months from 1994-2019; 49 mbbl and 3351 mmcf at 6900 ft in 138 months from 2000-2019; 88 mbbl and 3001 mmcf at 6860 ft in 213 months from 1994-2020; 45 mbbl and 2885 mmcf at 6900 ft in 111 months from 2000-2016; </t>
+        </is>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 26 wells outside the tract within a 3 mile radius.
-Out of these, 8 were dry and 6 do not have reported production. 
-The top wells that produced made: 93 mbbl and 3662 mmcf at 7845 ft in 191 months from 1995-2013; 89 mbbl and 3348 mmcf at 6840 ft in 183 months from 1994-2019; 49 mbbl and 3351 mmcf at 6900 ft in 138 months from 2000-2019; 88 mbbl and 3001 mmcf at 6860 ft in 213 months from 1994-2020; 45 mbbl and 2885 mmcf at 6900 ft in 111 months from 2000-2016; </t>
-        </is>
-      </c>
-      <c r="L83" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -5223,26 +5007,25 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2018.
 Kirkwood O&amp;G paid $32/acre.  Bro Energy paid $23/acre.  The weighted average price in 2018 overall within the 3 radius was $29/acre.  The highest price paid in 2018 was $32/acre
 </t>
         </is>
       </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are 2 wells within the tract.
+2 dry holes in tract.
+There are ~21 wells outside the tract within a 3 mile radius.
+Out of these, 7 were dry.
+2 do not have reported production. 
+The top wells that produced made: 93 mbbl and 3662 mmcf at 7845 ft in 191 months from 1995-2013; 89 mbbl and 3348 mmcf at 6840 ft in 183 months from 1994-2019; 49 mbbl and 3351 mmcf at 6900 ft in 138 months from 2000-2019; 88 mbbl and 3001 mmcf at 6860 ft in 213 months from 1994-2020; 45 mbbl and 2885 mmcf at 6900 ft in 111 months from 2000-2016; </t>
+        </is>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 23 wells outside the tract within a 3 mile radius.
-Out of these, 9 were dry and 2 do not have reported production. 
-The top wells that produced made: 93 mbbl and 3662 mmcf at 7845 ft in 191 months from 1995-2013; 89 mbbl and 3348 mmcf at 6840 ft in 183 months from 1994-2019; 49 mbbl and 3351 mmcf at 6900 ft in 138 months from 2000-2019; 88 mbbl and 3001 mmcf at 6860 ft in 213 months from 1994-2020; 45 mbbl and 2885 mmcf at 6900 ft in 111 months from 2000-2016; </t>
-        </is>
-      </c>
-      <c r="L84" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -5280,27 +5063,24 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2018.
 Bro Energy paid $23/acre.  
 In 2017, Kirkwood O&amp;G paid $26/acre. 
 </t>
         </is>
       </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are no wells within tract boundaries 
+There are ~6 wells outside the tract within a 3 mile radius.
+Out of these, 3 were dry.
+The top wells that produced made: 49 mbbl and 3351 mmcf at 6900 ft in 138 months from 2000-2019; 88 mbbl and 3001 mmcf at 6860 ft in 213 months from 1994-2020; 32 mbbl and 812 mmcf at 6960 ft in 135 months from 1996-2009; </t>
+        </is>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 6 wells outside the tract within a 3 mile radius.
-Out of these, 3 were dry and 0 do not have reported production. 
-The top wells that produced made: 49 mbbl and 3351 mmcf at 6900 ft in 138 months from 2000-2019; 88 mbbl and 3001 mmcf at 6860 ft in 213 months from 1994-2020; 32 mbbl and 812 mmcf at 6960 ft in 135 months from 1996-2009; </t>
-        </is>
-      </c>
-      <c r="L85" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -5338,24 +5118,21 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+          <t>There are no recorded leases within a 3 mile radius</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>There are no recorded leases within a 3 mile radius</t>
+          <t xml:space="preserve">There are no wells within tract boundaries 
+There are ~4 wells outside the tract within a 3 mile radius.
+Out of these, 4 were dry.
+</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 4 wells outside the tract within a 3 mile radius.
-Out of these, 4 were dry and 0 do not have reported production. 
-</t>
-        </is>
-      </c>
-      <c r="L86" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -5393,26 +5170,25 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2018.
 Liberty Petr paid between $9/acre and $18/acre.  Kirkwood O&amp;G paid $6/acre.  The weighted average price in 2018 overall within the 3 radius was $13/acre.  The highest price paid in 2018 was $18/acre
 </t>
         </is>
       </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are 1 wells within the tract.
+1 dry holes in tract.
+There are ~4 wells outside the tract within a 3 mile radius.
+Out of these, 2 were dry.
+2 do not have reported production. 
+</t>
+        </is>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 5 wells outside the tract within a 3 mile radius.
-Out of these, 3 were dry and 2 do not have reported production. 
-</t>
-        </is>
-      </c>
-      <c r="L87" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -5450,26 +5226,23 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2018.
 Liberty Petr paid between $12/acre and $14/acre.  Bro Energy paid $5/acre.  The weighted average price in 2018 overall within the 3 radius was $11/acre.  The highest price paid in 2018 was $14/acre
 </t>
         </is>
       </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are no wells within tract boundaries 
+There are ~2 wells outside the tract within a 3 mile radius.
+Out of these, 2 were dry.
+</t>
+        </is>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 2 wells outside the tract within a 3 mile radius.
-Out of these, 2 were dry and 0 do not have reported production. 
-</t>
-        </is>
-      </c>
-      <c r="L88" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -5507,26 +5280,25 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2018.
 Liberty Petr paid between $12/acre and $14/acre.  Kirkwood O&amp;G paid $6/acre.  The weighted average price in 2018 overall within the 3 radius was $12/acre.  The highest price paid in 2018 was $14/acre
 </t>
         </is>
       </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are 1 wells within the tract.
+1 dry holes in tract.
+There are ~8 wells outside the tract within a 3 mile radius.
+Out of these, 2 were dry.
+6 do not have reported production. 
+</t>
+        </is>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 9 wells outside the tract within a 3 mile radius.
-Out of these, 3 were dry and 6 do not have reported production. 
-</t>
-        </is>
-      </c>
-      <c r="L89" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -5564,26 +5336,24 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2018.
 Kirkwood O&amp;G paid $32/acre.  Liberty Petr paid $12/acre.  
 </t>
         </is>
       </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are no wells within tract boundaries 
+There are ~10 wells outside the tract within a 3 mile radius.
+Out of these, 3 were dry.
+7 do not have reported production. 
+</t>
+        </is>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 10 wells outside the tract within a 3 mile radius.
-Out of these, 3 were dry and 7 do not have reported production. 
-</t>
-        </is>
-      </c>
-      <c r="L90" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -5621,26 +5391,26 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2018.
 Kirkwood O&amp;G paid $32/acre.  
 </t>
         </is>
       </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are 7 wells within the tract.
+1 dry holes in tract.
+6 wells did not report production
+There are ~5 wells outside the tract within a 3 mile radius.
+Out of these, 2 were dry.
+1 do not have reported production. 
+The top wells that produced made: 15 mbbl and 365 mmcf at 7924 ft in 67 months from 1995-2009; 1 mbbl and 103 mmcf at 8280 ft in 26 months from 1996-2001; </t>
+        </is>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 12 wells outside the tract within a 3 mile radius.
-Out of these, 3 were dry and 7 do not have reported production. 
-The top wells that produced made: 15 mbbl and 365 mmcf at 7924 ft in 67 months from 1995-2009; 1 mbbl and 103 mmcf at 8280 ft in 26 months from 1996-2001; </t>
-        </is>
-      </c>
-      <c r="L91" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -5678,26 +5448,24 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2018.
 Kirkwood O&amp;G paid $32/acre.  Bro Energy paid $23/acre.  The weighted average price in 2018 overall within the 3 radius was $29/acre.  The highest price paid in 2018 was $32/acre
 </t>
         </is>
       </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are no wells within tract boundaries 
+There are ~19 wells outside the tract within a 3 mile radius.
+Out of these, 3 were dry.
+8 do not have reported production. 
+The top wells that produced made: 93 mbbl and 3662 mmcf at 7845 ft in 191 months from 1995-2013; 88 mbbl and 3001 mmcf at 6860 ft in 213 months from 1994-2020; 45 mbbl and 2885 mmcf at 6900 ft in 111 months from 2000-2016; 37 mbbl and 2105 mmcf at 6900 ft in 121 months from 2000-2010; 32 mbbl and 812 mmcf at 6960 ft in 135 months from 1996-2009; </t>
+        </is>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 19 wells outside the tract within a 3 mile radius.
-Out of these, 3 were dry and 8 do not have reported production. 
-The top wells that produced made: 93 mbbl and 3662 mmcf at 7845 ft in 191 months from 1995-2013; 88 mbbl and 3001 mmcf at 6860 ft in 213 months from 1994-2020; 45 mbbl and 2885 mmcf at 6900 ft in 111 months from 2000-2016; 37 mbbl and 2105 mmcf at 6900 ft in 121 months from 2000-2010; 32 mbbl and 812 mmcf at 6960 ft in 135 months from 1996-2009; </t>
-        </is>
-      </c>
-      <c r="L92" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -5735,26 +5503,24 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2018.
 Kirkwood O&amp;G paid $32/acre.  Bro Energy paid $23/acre.  The weighted average price in 2018 overall within the 3 radius was $29/acre.  The highest price paid in 2018 was $32/acre
 </t>
         </is>
       </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are no wells within tract boundaries 
+There are ~11 wells outside the tract within a 3 mile radius.
+Out of these, 3 were dry.
+1 do not have reported production. 
+The top wells that produced made: 93 mbbl and 3662 mmcf at 7845 ft in 191 months from 1995-2013; 45 mbbl and 2885 mmcf at 6900 ft in 111 months from 2000-2016; 37 mbbl and 2105 mmcf at 6900 ft in 121 months from 2000-2010; 32 mbbl and 812 mmcf at 6960 ft in 135 months from 1996-2009; 15 mbbl and 365 mmcf at 7924 ft in 67 months from 1995-2009; </t>
+        </is>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 11 wells outside the tract within a 3 mile radius.
-Out of these, 3 were dry and 1 do not have reported production. 
-The top wells that produced made: 93 mbbl and 3662 mmcf at 7845 ft in 191 months from 1995-2013; 45 mbbl and 2885 mmcf at 6900 ft in 111 months from 2000-2016; 37 mbbl and 2105 mmcf at 6900 ft in 121 months from 2000-2010; 32 mbbl and 812 mmcf at 6960 ft in 135 months from 1996-2009; 15 mbbl and 365 mmcf at 7924 ft in 67 months from 1995-2009; </t>
-        </is>
-      </c>
-      <c r="L93" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -5792,26 +5558,24 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2018.
 Kirkwood O&amp;G paid between $4/acre and $25/acre.  Bro Energy paid $5/acre.  The weighted average price in 2018 overall within the 3 radius was $8/acre.  The highest price paid in 2018 was $25/acre
 </t>
         </is>
       </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are 1 wells within the tract.
+1 dry holes in tract.
+There are ~4 wells outside the tract within a 3 mile radius.
+Out of these, 4 were dry.
+</t>
+        </is>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 5 wells outside the tract within a 3 mile radius.
-Out of these, 5 were dry and 0 do not have reported production. 
-</t>
-        </is>
-      </c>
-      <c r="L94" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -5849,26 +5613,23 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2018.
 Kirkwood O&amp;G paid between $4/acre and $25/acre.  The weighted average price in 2018 overall within the 3 radius was $7/acre.  The highest price paid in 2018 was $25/acre
 </t>
         </is>
       </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are no wells within tract boundaries 
+There are ~4 wells outside the tract within a 3 mile radius.
+Out of these, 4 were dry.
+</t>
+        </is>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 4 wells outside the tract within a 3 mile radius.
-Out of these, 4 were dry and 0 do not have reported production. 
-</t>
-        </is>
-      </c>
-      <c r="L95" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="96">
@@ -5906,24 +5667,21 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+          <t>There are no recorded leases within a 3 mile radius</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>There are no recorded leases within a 3 mile radius</t>
+          <t xml:space="preserve">There are no wells within tract boundaries 
+There are ~2 wells outside the tract within a 3 mile radius.
+Out of these, 2 were dry.
+</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 2 wells outside the tract within a 3 mile radius.
-Out of these, 2 were dry and 0 do not have reported production. 
-</t>
-        </is>
-      </c>
-      <c r="L96" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="97">
@@ -5961,26 +5719,23 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2018.
 Bro Energy paid $6/acre.  Kirkwood O&amp;G paid $3/acre.  
 </t>
         </is>
       </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are no wells within tract boundaries 
+There are ~3 wells outside the tract within a 3 mile radius.
+Out of these, 3 were dry.
+</t>
+        </is>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 3 wells outside the tract within a 3 mile radius.
-Out of these, 3 were dry and 0 do not have reported production. 
-</t>
-        </is>
-      </c>
-      <c r="L97" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -6018,26 +5773,24 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2018.
 Kirkwood O&amp;G paid between $1/acre and $5/acre.  Sitka Energy paid $6/acre.  The weighted average price in 2018 overall within the 3 radius was $6/acre.  The highest price paid in 2018 was $8/acre
 </t>
         </is>
       </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are 1 wells within the tract.
+1 dry holes in tract.
+There are ~3 wells outside the tract within a 3 mile radius.
+Out of these, 3 were dry.
+</t>
+        </is>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 4 wells outside the tract within a 3 mile radius.
-Out of these, 4 were dry and 0 do not have reported production. 
-</t>
-        </is>
-      </c>
-      <c r="L98" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -6075,26 +5828,23 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2018.
 Bro Energy paid $6/acre.  Sitka Energy paid between $6/acre and $7/acre.  The weighted average price in 2018 overall within the 3 radius was $6/acre.  The highest price paid in 2018 was $7/acre
 </t>
         </is>
       </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are no wells within tract boundaries 
+There are ~1 wells outside the tract within a 3 mile radius.
+Out of these, 1 were dry.
+</t>
+        </is>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 1 wells outside the tract within a 3 mile radius.
-Out of these, 1 were dry and 0 do not have reported production. 
-</t>
-        </is>
-      </c>
-      <c r="L99" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="100">
@@ -6132,23 +5882,20 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2018.
 Kirkwood O&amp;G paid between $2/acre and $3/acre.  Bro Energy paid $6/acre.  The weighted average price in 2018 overall within the 3 radius was $5/acre.  The highest price paid in 2018 was $7/acre
 </t>
         </is>
       </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L100" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="101">
@@ -6186,26 +5933,23 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2018.
 Kirkwood O&amp;G paid between $1/acre and $5/acre.  Sitka Energy paid $6/acre.  The weighted average price in 2018 overall within the 3 radius was $5/acre.  The highest price paid in 2018 was $8/acre
 </t>
         </is>
       </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are no wells within tract boundaries 
+There are ~2 wells outside the tract within a 3 mile radius.
+Out of these, 2 were dry.
+</t>
+        </is>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are no wells within tract boundaries 
-There are 2 wells outside the tract within a 3 mile radius.
-Out of these, 2 were dry and 0 do not have reported production. 
-</t>
-        </is>
-      </c>
-      <c r="L101" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="102">
@@ -6243,26 +5987,23 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
+          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2017.
+O&amp;G Reservoir Development Leaders paid $12/acre.  
+</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
           <t xml:space="preserve">There are 14 wells within 3 mile radius that have started producing within last 4 years
 14 are D wells
 14 wells have produced for 25 to 36 months and have made between 0 to 5 mbbls with 57 to 1006 mmcf of gas.  These wells are currently averaging 2 bpd and 497 mcfd.  </t>
         </is>
       </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2017.
-O&amp;G Reservoir Development Leaders paid $12/acre.  
-</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L102" s="2" t="n">
-        <v>43913</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -6299,23 +6040,20 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Kirkwood O&amp;G paid between $1/acre and $6/acre.  
 </t>
         </is>
       </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L103" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="104">
@@ -6353,24 +6091,21 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Kirkwood O&amp;G paid between $1/acre and $22/acre.  
 In 2017, Kirkwood O&amp;G paid $21/acre. 
 </t>
         </is>
       </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L104" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="105">
@@ -6408,23 +6143,20 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2019.
 Kirkwood O&amp;G paid $6/acre.  
 </t>
         </is>
       </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L105" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -6462,24 +6194,21 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
           <t xml:space="preserve">In a 3 mile radius, the latest leases with bonus information were taken in 2016.
 Wold Oil paid $13/acre.  The weighted average price in 2016 overall within the 3 radius was $13/acre.  
 In 2013, Wold Oil paid $5/acre. 
 </t>
         </is>
       </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>No old wells within tract or in 3 mile radius of tract.</t>
+        </is>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>No old wells within tract or in 3 mile radius of tract.</t>
-        </is>
-      </c>
-      <c r="L106" s="2" t="n">
-        <v>43913</v>
+          <t>There are no new wells in the last 4 years within a 3 mile radius</t>
+        </is>
       </c>
     </row>
   </sheetData>
